--- a/Moneycontrol/src/main/resources/stocks.xlsx
+++ b/Moneycontrol/src/main/resources/stocks.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="382">
   <si>
     <t>company</t>
   </si>

--- a/Moneycontrol/src/main/resources/stocks.xlsx
+++ b/Moneycontrol/src/main/resources/stocks.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akshay\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datta\git\moneycontrol\Moneycontrol\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D183784-FF82-4010-8B71-259E70F8C485}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8385D3B-AA2A-49F9-839F-C378BEEEE000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" Employee Info " sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Result" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">' Employee Info '!$A$1:$J$29</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="483">
   <si>
     <t>company</t>
   </si>
@@ -226,27 +227,15 @@
     <t>1189.25</t>
   </si>
   <si>
-    <t>806.85</t>
-  </si>
-  <si>
-    <t>102.95</t>
-  </si>
-  <si>
     <t>266.55</t>
   </si>
   <si>
     <t>122.10</t>
   </si>
   <si>
-    <t>516.45</t>
-  </si>
-  <si>
     <t>296.75</t>
   </si>
   <si>
-    <t>184.00</t>
-  </si>
-  <si>
     <t>1596.55</t>
   </si>
   <si>
@@ -259,9 +248,6 @@
     <t>416.45</t>
   </si>
   <si>
-    <t>63.50</t>
-  </si>
-  <si>
     <t>299.00</t>
   </si>
   <si>
@@ -478,9 +464,6 @@
     <t>439.15</t>
   </si>
   <si>
-    <t>90.00</t>
-  </si>
-  <si>
     <t>139.55</t>
   </si>
   <si>
@@ -493,21 +476,12 @@
     <t>663.00</t>
   </si>
   <si>
-    <t>112.30</t>
-  </si>
-  <si>
-    <t>279.80</t>
-  </si>
-  <si>
     <t>217.75</t>
   </si>
   <si>
     <t>132.85</t>
   </si>
   <si>
-    <t>263.25</t>
-  </si>
-  <si>
     <t>110.40</t>
   </si>
   <si>
@@ -538,9 +512,6 @@
     <t>83.40</t>
   </si>
   <si>
-    <t>271.00</t>
-  </si>
-  <si>
     <t>956.00</t>
   </si>
   <si>
@@ -652,165 +623,6 @@
     <t>317.00</t>
   </si>
   <si>
-    <t>191.55</t>
-  </si>
-  <si>
-    <t>147.55</t>
-  </si>
-  <si>
-    <t>477.95</t>
-  </si>
-  <si>
-    <t>208.65</t>
-  </si>
-  <si>
-    <t>841.60</t>
-  </si>
-  <si>
-    <t>405.85</t>
-  </si>
-  <si>
-    <t>152.90</t>
-  </si>
-  <si>
-    <t>187.00</t>
-  </si>
-  <si>
-    <t>136.55</t>
-  </si>
-  <si>
-    <t>87.30</t>
-  </si>
-  <si>
-    <t>173.65</t>
-  </si>
-  <si>
-    <t>158.95</t>
-  </si>
-  <si>
-    <t>87.75</t>
-  </si>
-  <si>
-    <t>555.70</t>
-  </si>
-  <si>
-    <t>89.40</t>
-  </si>
-  <si>
-    <t>100.50</t>
-  </si>
-  <si>
-    <t>93.35</t>
-  </si>
-  <si>
-    <t>65.70</t>
-  </si>
-  <si>
-    <t>38.55</t>
-  </si>
-  <si>
-    <t>198.30</t>
-  </si>
-  <si>
-    <t>49.90</t>
-  </si>
-  <si>
-    <t>1568.35</t>
-  </si>
-  <si>
-    <t>264.00</t>
-  </si>
-  <si>
-    <t>103.60</t>
-  </si>
-  <si>
-    <t>30.45</t>
-  </si>
-  <si>
-    <t>125.40</t>
-  </si>
-  <si>
-    <t>304.75</t>
-  </si>
-  <si>
-    <t>108.90</t>
-  </si>
-  <si>
-    <t>198.10</t>
-  </si>
-  <si>
-    <t>115.25</t>
-  </si>
-  <si>
-    <t>84.85</t>
-  </si>
-  <si>
-    <t>554.60</t>
-  </si>
-  <si>
-    <t>35.70</t>
-  </si>
-  <si>
-    <t>72.65</t>
-  </si>
-  <si>
-    <t>52.10</t>
-  </si>
-  <si>
-    <t>67.05</t>
-  </si>
-  <si>
-    <t>50.35</t>
-  </si>
-  <si>
-    <t>516.50</t>
-  </si>
-  <si>
-    <t>181.25</t>
-  </si>
-  <si>
-    <t>412.00</t>
-  </si>
-  <si>
-    <t>64.30</t>
-  </si>
-  <si>
-    <t>179.40</t>
-  </si>
-  <si>
-    <t>402.35</t>
-  </si>
-  <si>
-    <t>574.75</t>
-  </si>
-  <si>
-    <t>281.90</t>
-  </si>
-  <si>
-    <t>414.05</t>
-  </si>
-  <si>
-    <t>323.90</t>
-  </si>
-  <si>
-    <t>923.30</t>
-  </si>
-  <si>
-    <t>2099.05</t>
-  </si>
-  <si>
-    <t>370.00</t>
-  </si>
-  <si>
-    <t>938.90</t>
-  </si>
-  <si>
-    <t>272.00</t>
-  </si>
-  <si>
-    <t>183.30</t>
-  </si>
-  <si>
     <t>la opala</t>
   </si>
   <si>
@@ -826,207 +638,51 @@
     <t>GIP</t>
   </si>
   <si>
-    <t>71.50</t>
-  </si>
-  <si>
-    <t>308.25</t>
-  </si>
-  <si>
-    <t>124.40</t>
-  </si>
-  <si>
-    <t>202.25</t>
-  </si>
-  <si>
-    <t>66.30</t>
-  </si>
-  <si>
-    <t>319.40</t>
-  </si>
-  <si>
-    <t>36.75</t>
-  </si>
-  <si>
     <t>62.70</t>
   </si>
   <si>
-    <t>275.60</t>
-  </si>
-  <si>
     <t>295.80</t>
   </si>
   <si>
-    <t>177.85</t>
-  </si>
-  <si>
-    <t>190.55</t>
-  </si>
-  <si>
-    <t>194.85</t>
-  </si>
-  <si>
-    <t>100.20</t>
-  </si>
-  <si>
-    <t>557.35</t>
-  </si>
-  <si>
     <t>91.65</t>
   </si>
   <si>
-    <t>274.35</t>
-  </si>
-  <si>
     <t>46.95</t>
   </si>
   <si>
-    <t>148.10</t>
-  </si>
-  <si>
     <t>48.60</t>
   </si>
   <si>
-    <t>168.20</t>
-  </si>
-  <si>
-    <t>959.95</t>
-  </si>
-  <si>
-    <t>29.10</t>
-  </si>
-  <si>
     <t>99.50</t>
   </si>
   <si>
-    <t>102.10</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
     <t>180.00</t>
   </si>
   <si>
-    <t>87.50</t>
-  </si>
-  <si>
     <t>111.25</t>
   </si>
   <si>
-    <t>204.50</t>
-  </si>
-  <si>
-    <t>1625.00</t>
-  </si>
-  <si>
-    <t>88.70</t>
-  </si>
-  <si>
-    <t>369.40</t>
-  </si>
-  <si>
-    <t>65.80</t>
-  </si>
-  <si>
-    <t>154.35</t>
-  </si>
-  <si>
-    <t>133.40</t>
-  </si>
-  <si>
     <t>256.40</t>
   </si>
   <si>
-    <t>87.35</t>
-  </si>
-  <si>
     <t>173.50</t>
   </si>
   <si>
-    <t>178.25</t>
-  </si>
-  <si>
-    <t>89.05</t>
-  </si>
-  <si>
-    <t>404.20</t>
-  </si>
-  <si>
-    <t>911.20</t>
-  </si>
-  <si>
-    <t>51.05</t>
-  </si>
-  <si>
-    <t>875.60</t>
-  </si>
-  <si>
-    <t>476.00</t>
-  </si>
-  <si>
-    <t>107.85</t>
-  </si>
-  <si>
-    <t>148.25</t>
-  </si>
-  <si>
-    <t>560.75</t>
-  </si>
-  <si>
-    <t>389.75</t>
-  </si>
-  <si>
-    <t>407.20</t>
-  </si>
-  <si>
-    <t>188.55</t>
-  </si>
-  <si>
     <t>258.05</t>
   </si>
   <si>
-    <t>327.00</t>
-  </si>
-  <si>
     <t>514.85</t>
   </si>
   <si>
-    <t>579.00</t>
-  </si>
-  <si>
     <t>797.50</t>
   </si>
   <si>
-    <t>2093.70</t>
-  </si>
-  <si>
-    <t>89.20</t>
-  </si>
-  <si>
-    <t>34.85</t>
-  </si>
-  <si>
-    <t>504.30</t>
-  </si>
-  <si>
-    <t>63.75</t>
-  </si>
-  <si>
     <t>264.50</t>
   </si>
   <si>
-    <t>424.70</t>
-  </si>
-  <si>
-    <t>190.65</t>
-  </si>
-  <si>
     <t>228.00</t>
   </si>
   <si>
-    <t>72.85</t>
-  </si>
-  <si>
     <t>86.90</t>
   </si>
   <si>
@@ -1181,6 +837,654 @@
   </si>
   <si>
     <t>72.90</t>
+  </si>
+  <si>
+    <t>ACE3</t>
+  </si>
+  <si>
+    <t>BHADYN</t>
+  </si>
+  <si>
+    <t>CU</t>
+  </si>
+  <si>
+    <t>CDSL</t>
+  </si>
+  <si>
+    <t>CMSIN</t>
+  </si>
+  <si>
+    <t>DLFLIM</t>
+  </si>
+  <si>
+    <t>HDFAMC</t>
+  </si>
+  <si>
+    <t>HINAER</t>
+  </si>
+  <si>
+    <t>ICIBAN</t>
+  </si>
+  <si>
+    <t>IKILIG</t>
+  </si>
+  <si>
+    <t>IEI</t>
+  </si>
+  <si>
+    <t>IRBINF</t>
+  </si>
+  <si>
+    <t>JSWINF</t>
+  </si>
+  <si>
+    <t>SWS</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>TM03</t>
+  </si>
+  <si>
+    <t>TITIND</t>
+  </si>
+  <si>
+    <t>TVSSUP</t>
+  </si>
+  <si>
+    <t>Abrasives</t>
+  </si>
+  <si>
+    <t>NT*</t>
+  </si>
+  <si>
+    <t>710.00</t>
+  </si>
+  <si>
+    <t>Power Generation/Distribution</t>
+  </si>
+  <si>
+    <t>Tata Chemicals</t>
+  </si>
+  <si>
+    <t>Carborundum Universal</t>
+  </si>
+  <si>
+    <t>1841.15</t>
+  </si>
+  <si>
+    <t>1025.60</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Larsen &amp; Toubro</t>
+  </si>
+  <si>
+    <t>3919.90</t>
+  </si>
+  <si>
+    <t>2586.30</t>
+  </si>
+  <si>
+    <t>Engineering &amp; Construction</t>
+  </si>
+  <si>
+    <t>Ion Exchange (India)</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>Engineering - Industrial Equipments</t>
+  </si>
+  <si>
+    <t>Action Construction Equipment</t>
+  </si>
+  <si>
+    <t>1349.00</t>
+  </si>
+  <si>
+    <t>1695.00</t>
+  </si>
+  <si>
+    <t>644.35</t>
+  </si>
+  <si>
+    <t>Sterling and Wilson Renewable Energy</t>
+  </si>
+  <si>
+    <t>828.00</t>
+  </si>
+  <si>
+    <t>253.00</t>
+  </si>
+  <si>
+    <t>933.00</t>
+  </si>
+  <si>
+    <t>Fertilizers</t>
+  </si>
+  <si>
+    <t>CIS02</t>
+  </si>
+  <si>
+    <t>HAL</t>
+  </si>
+  <si>
+    <t>ICI02</t>
+  </si>
+  <si>
+    <t>IID01</t>
+  </si>
+  <si>
+    <t>BDL01</t>
+  </si>
+  <si>
+    <t>cds</t>
+  </si>
+  <si>
+    <t>HAM02</t>
+  </si>
+  <si>
+    <t>ACTCON</t>
+  </si>
+  <si>
+    <t>CARUNI</t>
+  </si>
+  <si>
+    <t>IONEXC</t>
+  </si>
+  <si>
+    <t>IRCINT</t>
+  </si>
+  <si>
+    <t>LARTOU</t>
+  </si>
+  <si>
+    <t>LATVIE</t>
+  </si>
+  <si>
+    <t>MPHLIM</t>
+  </si>
+  <si>
+    <t>STABAN</t>
+  </si>
+  <si>
+    <t>STEWIL</t>
+  </si>
+  <si>
+    <t>TATCHE</t>
+  </si>
+  <si>
+    <t>TATMOT</t>
+  </si>
+  <si>
+    <t>UNISPI</t>
+  </si>
+  <si>
+    <t>WIPRO</t>
+  </si>
+  <si>
+    <t>TI01</t>
+  </si>
+  <si>
+    <t>TSC03</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>TVS Supply Chain Solutions</t>
+  </si>
+  <si>
+    <t>258.00</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>Logistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDFC Asset Management Company </t>
+  </si>
+  <si>
+    <t>4296.40</t>
+  </si>
+  <si>
+    <t>2371.55</t>
+  </si>
+  <si>
+    <t>Finance - Investment</t>
+  </si>
+  <si>
+    <t>IRB Infrastructure Developers</t>
+  </si>
+  <si>
+    <t>78.15</t>
+  </si>
+  <si>
+    <t>24.95</t>
+  </si>
+  <si>
+    <t>Transport Infrastructure</t>
+  </si>
+  <si>
+    <t>Bharat Dynamics</t>
+  </si>
+  <si>
+    <t>1794.70</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>Defence</t>
+  </si>
+  <si>
+    <t>967.60</t>
+  </si>
+  <si>
+    <t>463.05</t>
+  </si>
+  <si>
+    <t>Construction - Residential &amp; Commercial Complexes</t>
+  </si>
+  <si>
+    <t>Titan Company</t>
+  </si>
+  <si>
+    <t>3886.95</t>
+  </si>
+  <si>
+    <t>2882.45</t>
+  </si>
+  <si>
+    <t>Diamond  &amp;  Jewellery</t>
+  </si>
+  <si>
+    <t>Hindustan Aeronautics</t>
+  </si>
+  <si>
+    <t>5674.75</t>
+  </si>
+  <si>
+    <t>1485.33</t>
+  </si>
+  <si>
+    <t>Aerospace &amp; Defence</t>
+  </si>
+  <si>
+    <t>ICICI Bank</t>
+  </si>
+  <si>
+    <t>1257.80</t>
+  </si>
+  <si>
+    <t>899.00</t>
+  </si>
+  <si>
+    <t>Bank - Private</t>
+  </si>
+  <si>
+    <t>State Bank of India</t>
+  </si>
+  <si>
+    <t>912.00</t>
+  </si>
+  <si>
+    <t>543.20</t>
+  </si>
+  <si>
+    <t>Bank - Public</t>
+  </si>
+  <si>
+    <t>CMS Info Systems</t>
+  </si>
+  <si>
+    <t>594.60</t>
+  </si>
+  <si>
+    <t>341.30</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Unisys Software and Holding Industries</t>
+  </si>
+  <si>
+    <t>Yes bak</t>
+  </si>
+  <si>
+    <t>YB</t>
+  </si>
+  <si>
+    <t>Apex frozen</t>
+  </si>
+  <si>
+    <t>AFF</t>
+  </si>
+  <si>
+    <t>Anup rasaya</t>
+  </si>
+  <si>
+    <t>ARI02</t>
+  </si>
+  <si>
+    <t>Anupam Rasayan India</t>
+  </si>
+  <si>
+    <t>1106.30</t>
+  </si>
+  <si>
+    <t>720.40</t>
+  </si>
+  <si>
+    <t>Speciality Chemicals</t>
+  </si>
+  <si>
+    <t>Apex Frozen Foods</t>
+  </si>
+  <si>
+    <t>324.00</t>
+  </si>
+  <si>
+    <t>188.30</t>
+  </si>
+  <si>
+    <t>Aquaculture</t>
+  </si>
+  <si>
+    <t>Yes Bank</t>
+  </si>
+  <si>
+    <t>32.85</t>
+  </si>
+  <si>
+    <t>15.70</t>
+  </si>
+  <si>
+    <t>849.10</t>
+  </si>
+  <si>
+    <t>560.05</t>
+  </si>
+  <si>
+    <t>IRCON</t>
+  </si>
+  <si>
+    <t>IKIO</t>
+  </si>
+  <si>
+    <t>MPHASIS</t>
+  </si>
+  <si>
+    <t>JIL05</t>
+  </si>
+  <si>
+    <t>787.10</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>285.40</t>
+  </si>
+  <si>
+    <t>4150.30</t>
+  </si>
+  <si>
+    <t>64.75</t>
+  </si>
+  <si>
+    <t>JSW Infrastructure</t>
+  </si>
+  <si>
+    <t>328.25</t>
+  </si>
+  <si>
+    <t>360.95</t>
+  </si>
+  <si>
+    <t>119.00</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>3692.55</t>
+  </si>
+  <si>
+    <t>1425.85</t>
+  </si>
+  <si>
+    <t>854.40</t>
+  </si>
+  <si>
+    <t>25.54</t>
+  </si>
+  <si>
+    <t>702.80</t>
+  </si>
+  <si>
+    <t>1350.00</t>
+  </si>
+  <si>
+    <t>664.90</t>
+  </si>
+  <si>
+    <t>1089.05</t>
+  </si>
+  <si>
+    <t>3441.65</t>
+  </si>
+  <si>
+    <t>1673.60</t>
+  </si>
+  <si>
+    <t>4728.85</t>
+  </si>
+  <si>
+    <t>1200.05</t>
+  </si>
+  <si>
+    <t>852.20</t>
+  </si>
+  <si>
+    <t>560.20</t>
+  </si>
+  <si>
+    <t>current Price</t>
+  </si>
+  <si>
+    <t>52H</t>
+  </si>
+  <si>
+    <t>52L</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>785.00</t>
+  </si>
+  <si>
+    <t>189.96</t>
+  </si>
+  <si>
+    <t>285.50</t>
+  </si>
+  <si>
+    <t>4151.75</t>
+  </si>
+  <si>
+    <t>64.83</t>
+  </si>
+  <si>
+    <t>327.95</t>
+  </si>
+  <si>
+    <t>3695.00</t>
+  </si>
+  <si>
+    <t>1426.45</t>
+  </si>
+  <si>
+    <t>855.60</t>
+  </si>
+  <si>
+    <t>25.55</t>
+  </si>
+  <si>
+    <t>703.00</t>
+  </si>
+  <si>
+    <t>665.00</t>
+  </si>
+  <si>
+    <t>1092.90</t>
+  </si>
+  <si>
+    <t>3449.10</t>
+  </si>
+  <si>
+    <t>1674.25</t>
+  </si>
+  <si>
+    <t>4729.90</t>
+  </si>
+  <si>
+    <t>1201.30</t>
+  </si>
+  <si>
+    <t>852.95</t>
+  </si>
+  <si>
+    <t>560.00</t>
+  </si>
+  <si>
+    <t>785.20</t>
+  </si>
+  <si>
+    <t>40.89403973509933</t>
+  </si>
+  <si>
+    <t>189.72</t>
+  </si>
+  <si>
+    <t>35.9898798228969</t>
+  </si>
+  <si>
+    <t>284.25</t>
+  </si>
+  <si>
+    <t>13.984168865435356</t>
+  </si>
+  <si>
+    <t>4150.60</t>
+  </si>
+  <si>
+    <t>3.512745145280183</t>
+  </si>
+  <si>
+    <t>64.70</t>
+  </si>
+  <si>
+    <t>20.788253477588874</t>
+  </si>
+  <si>
+    <t>327.50</t>
+  </si>
+  <si>
+    <t>10.213740458015263</t>
+  </si>
+  <si>
+    <t>3680.00</t>
+  </si>
+  <si>
+    <t>6.519021739130437</t>
+  </si>
+  <si>
+    <t>1417.30</t>
+  </si>
+  <si>
+    <t>26.628095674874768</t>
+  </si>
+  <si>
+    <t>850.10</t>
+  </si>
+  <si>
+    <t>13.821903305493471</t>
+  </si>
+  <si>
+    <t>25.51</t>
+  </si>
+  <si>
+    <t>28.77303018424147</t>
+  </si>
+  <si>
+    <t>703.85</t>
+  </si>
+  <si>
+    <t>0.8737657171272256</t>
+  </si>
+  <si>
+    <t>1344.35</t>
+  </si>
+  <si>
+    <t>26.083237252203677</t>
+  </si>
+  <si>
+    <t>662.50</t>
+  </si>
+  <si>
+    <t>24.9811320754717</t>
+  </si>
+  <si>
+    <t>1094.15</t>
+  </si>
+  <si>
+    <t>23.292053191975494</t>
+  </si>
+  <si>
+    <t>3445.45</t>
+  </si>
+  <si>
+    <t>12.814001073880046</t>
+  </si>
+  <si>
+    <t>1672.80</t>
+  </si>
+  <si>
+    <t>10.063964610234347</t>
+  </si>
+  <si>
+    <t>4718.95</t>
+  </si>
+  <si>
+    <t>20.254505769291903</t>
+  </si>
+  <si>
+    <t>1199.85</t>
+  </si>
+  <si>
+    <t>4.829770387965167</t>
+  </si>
+  <si>
+    <t>850.60</t>
+  </si>
+  <si>
+    <t>7.21843404655537</t>
+  </si>
+  <si>
+    <t>6.178571428571432</t>
+  </si>
+  <si>
+    <t>0.0</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1492,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1206,6 +1510,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1267,7 +1577,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1293,6 +1603,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1386,9 +1697,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1426,7 +1737,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1532,7 +1843,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1674,7 +1985,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1684,7 +1995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K1" sqref="K1:BX123"/>
     </sheetView>
   </sheetViews>
@@ -1713,13 +2024,13 @@
         <v>57</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -1738,10 +2049,10 @@
         <v>180</v>
       </c>
       <c r="E2" t="s">
-        <v>331</v>
+        <v>216</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H2" s="1">
         <f t="shared" ref="H2:H33" si="0">E2-C2</f>
@@ -1766,10 +2077,10 @@
         <v>500</v>
       </c>
       <c r="E3" t="s">
-        <v>332</v>
+        <v>217</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" si="0"/>
@@ -1794,10 +2105,10 @@
         <v>190</v>
       </c>
       <c r="E4" t="s">
-        <v>333</v>
+        <v>218</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
@@ -1822,10 +2133,10 @@
         <v>300</v>
       </c>
       <c r="E5" t="s">
-        <v>334</v>
+        <v>219</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="0"/>
@@ -1850,10 +2161,10 @@
         <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>335</v>
+        <v>220</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="0"/>
@@ -1866,10 +2177,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C7" s="9">
         <v>300</v>
@@ -1878,10 +2189,10 @@
         <v>425</v>
       </c>
       <c r="E7" t="s">
-        <v>336</v>
+        <v>221</v>
       </c>
       <c r="F7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="0"/>
@@ -1906,10 +2217,10 @@
         <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>337</v>
+        <v>222</v>
       </c>
       <c r="F8" t="s">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="0"/>
@@ -1922,10 +2233,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C9" s="9">
         <v>215</v>
@@ -1934,10 +2245,10 @@
         <v>300</v>
       </c>
       <c r="E9" t="s">
-        <v>338</v>
+        <v>223</v>
       </c>
       <c r="F9" t="s">
-        <v>272</v>
+        <v>201</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="0"/>
@@ -1950,10 +2261,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C10" s="10">
         <v>170</v>
@@ -1962,10 +2273,10 @@
         <v>225</v>
       </c>
       <c r="E10" t="s">
-        <v>339</v>
+        <v>224</v>
       </c>
       <c r="F10" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="1">
@@ -1991,10 +2302,10 @@
         <v>400</v>
       </c>
       <c r="E11" t="s">
-        <v>340</v>
+        <v>225</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="0"/>
@@ -2019,10 +2330,10 @@
         <v>250</v>
       </c>
       <c r="E12" t="s">
-        <v>341</v>
+        <v>226</v>
       </c>
       <c r="F12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="0"/>
@@ -2047,10 +2358,10 @@
         <v>130</v>
       </c>
       <c r="E13" t="s">
-        <v>342</v>
+        <v>227</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="0"/>
@@ -2063,10 +2374,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C14" s="10">
         <v>566</v>
@@ -2075,10 +2386,10 @@
         <v>700</v>
       </c>
       <c r="E14" t="s">
-        <v>343</v>
+        <v>228</v>
       </c>
       <c r="F14" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="0"/>
@@ -2103,10 +2414,10 @@
         <v>120</v>
       </c>
       <c r="E15" t="s">
-        <v>278</v>
+        <v>202</v>
       </c>
       <c r="F15" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="0"/>
@@ -2119,10 +2430,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C16" s="9">
         <v>270</v>
@@ -2131,10 +2442,10 @@
         <v>330</v>
       </c>
       <c r="E16" t="s">
-        <v>344</v>
+        <v>229</v>
       </c>
       <c r="F16" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="0"/>
@@ -2159,13 +2470,13 @@
         <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>280</v>
+        <v>203</v>
       </c>
       <c r="F17" t="s">
         <v>59</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="0"/>
@@ -2190,10 +2501,10 @@
         <v>190</v>
       </c>
       <c r="E18" t="s">
-        <v>345</v>
+        <v>230</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="0"/>
@@ -2206,10 +2517,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C19" s="7">
         <v>41</v>
@@ -2218,10 +2529,10 @@
         <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>282</v>
+        <v>204</v>
       </c>
       <c r="F19" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="0"/>
@@ -2246,10 +2557,10 @@
         <v>210</v>
       </c>
       <c r="E20" t="s">
-        <v>346</v>
+        <v>231</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="0"/>
@@ -2262,10 +2573,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C21" s="10">
         <v>912</v>
@@ -2274,10 +2585,10 @@
         <v>1050</v>
       </c>
       <c r="E21" t="s">
-        <v>347</v>
+        <v>232</v>
       </c>
       <c r="F21" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="0"/>
@@ -2302,10 +2613,10 @@
         <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>348</v>
+        <v>233</v>
       </c>
       <c r="F22" t="s">
-        <v>286</v>
+        <v>205</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="0"/>
@@ -2330,10 +2641,10 @@
         <v>120</v>
       </c>
       <c r="E23" t="s">
-        <v>349</v>
+        <v>234</v>
       </c>
       <c r="F23" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="0"/>
@@ -2358,10 +2669,10 @@
         <v>128</v>
       </c>
       <c r="E24" t="s">
-        <v>350</v>
+        <v>235</v>
       </c>
       <c r="F24" t="s">
-        <v>289</v>
+        <v>206</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="0"/>
@@ -2374,10 +2685,10 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C25" s="9">
         <v>94</v>
@@ -2386,10 +2697,10 @@
         <v>106</v>
       </c>
       <c r="E25" t="s">
-        <v>351</v>
+        <v>236</v>
       </c>
       <c r="F25" t="s">
-        <v>291</v>
+        <v>207</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="0"/>
@@ -2414,10 +2725,10 @@
         <v>250</v>
       </c>
       <c r="E26" t="s">
-        <v>352</v>
+        <v>237</v>
       </c>
       <c r="F26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="0"/>
@@ -2430,10 +2741,10 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C27" s="9">
         <v>1600</v>
@@ -2442,10 +2753,10 @@
         <v>1800</v>
       </c>
       <c r="E27" t="s">
-        <v>353</v>
+        <v>238</v>
       </c>
       <c r="F27" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="0"/>
@@ -2470,10 +2781,10 @@
         <v>110</v>
       </c>
       <c r="E28" t="s">
-        <v>354</v>
+        <v>239</v>
       </c>
       <c r="F28" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="0"/>
@@ -2486,10 +2797,10 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C29" s="10">
         <v>336</v>
@@ -2498,10 +2809,10 @@
         <v>377</v>
       </c>
       <c r="E29" t="s">
-        <v>355</v>
+        <v>240</v>
       </c>
       <c r="F29" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="0"/>
@@ -2514,10 +2825,10 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C30" s="9">
         <v>58</v>
@@ -2526,10 +2837,10 @@
         <v>65</v>
       </c>
       <c r="E30" t="s">
-        <v>356</v>
+        <v>241</v>
       </c>
       <c r="F30" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="0"/>
@@ -2554,10 +2865,10 @@
         <v>190</v>
       </c>
       <c r="E31" t="s">
-        <v>357</v>
+        <v>242</v>
       </c>
       <c r="F31" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="0"/>
@@ -2570,10 +2881,10 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C32" s="7">
         <v>148</v>
@@ -2582,10 +2893,10 @@
         <v>165</v>
       </c>
       <c r="E32" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F32" t="s">
-        <v>299</v>
+        <v>208</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="0"/>
@@ -2598,10 +2909,10 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C33" s="10">
         <v>94</v>
@@ -2610,10 +2921,10 @@
         <v>104</v>
       </c>
       <c r="E33" t="s">
-        <v>358</v>
+        <v>243</v>
       </c>
       <c r="F33" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="0"/>
@@ -2626,10 +2937,10 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C34" s="9">
         <v>126</v>
@@ -2638,10 +2949,10 @@
         <v>138</v>
       </c>
       <c r="E34" t="s">
-        <v>301</v>
+        <v>209</v>
       </c>
       <c r="F34" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" ref="H34:H57" si="2">E34-C34</f>
@@ -2654,10 +2965,10 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C35" s="9">
         <v>165</v>
@@ -2666,10 +2977,10 @@
         <v>180</v>
       </c>
       <c r="E35" t="s">
-        <v>359</v>
+        <v>244</v>
       </c>
       <c r="F35" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="2"/>
@@ -2682,7 +2993,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>42</v>
@@ -2694,10 +3005,10 @@
         <v>170</v>
       </c>
       <c r="E36" t="s">
-        <v>340</v>
+        <v>225</v>
       </c>
       <c r="F36" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="2"/>
@@ -2722,10 +3033,10 @@
         <v>87</v>
       </c>
       <c r="E37" t="s">
-        <v>360</v>
+        <v>245</v>
       </c>
       <c r="F37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" si="2"/>
@@ -2738,10 +3049,10 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C38" s="10">
         <v>405</v>
@@ -2750,10 +3061,10 @@
         <v>440</v>
       </c>
       <c r="E38" t="s">
-        <v>361</v>
+        <v>246</v>
       </c>
       <c r="F38" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H38" s="1">
         <f t="shared" si="2"/>
@@ -2766,10 +3077,10 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C39" s="9">
         <v>898</v>
@@ -2778,10 +3089,10 @@
         <v>975</v>
       </c>
       <c r="E39" t="s">
-        <v>362</v>
+        <v>247</v>
       </c>
       <c r="F39" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="H39" s="1">
         <f t="shared" si="2"/>
@@ -2794,10 +3105,10 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C40" s="7">
         <v>47</v>
@@ -2806,10 +3117,10 @@
         <v>51</v>
       </c>
       <c r="E40" t="s">
-        <v>363</v>
+        <v>248</v>
       </c>
       <c r="F40" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="H40" s="1">
         <f t="shared" si="2"/>
@@ -2834,7 +3145,7 @@
         <v>950</v>
       </c>
       <c r="E41" t="s">
-        <v>364</v>
+        <v>249</v>
       </c>
       <c r="F41" t="s">
         <v>62</v>
@@ -2862,10 +3173,10 @@
         <v>550</v>
       </c>
       <c r="E42" t="s">
-        <v>365</v>
+        <v>250</v>
       </c>
       <c r="F42" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" si="2"/>
@@ -2890,10 +3201,10 @@
         <v>115</v>
       </c>
       <c r="E43" t="s">
-        <v>366</v>
+        <v>251</v>
       </c>
       <c r="F43" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" si="2"/>
@@ -2906,10 +3217,10 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C44" s="9">
         <v>174</v>
@@ -2918,10 +3229,10 @@
         <v>185</v>
       </c>
       <c r="E44" t="s">
-        <v>367</v>
+        <v>252</v>
       </c>
       <c r="F44" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" si="2"/>
@@ -2934,10 +3245,10 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C45" s="9">
         <v>555</v>
@@ -2946,10 +3257,10 @@
         <v>590</v>
       </c>
       <c r="E45" t="s">
-        <v>368</v>
+        <v>253</v>
       </c>
       <c r="F45" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" si="2"/>
@@ -2962,10 +3273,10 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C46" s="9">
         <v>385</v>
@@ -2974,10 +3285,10 @@
         <v>405</v>
       </c>
       <c r="E46" t="s">
-        <v>369</v>
+        <v>254</v>
       </c>
       <c r="F46" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="H46" s="1">
         <f t="shared" si="2"/>
@@ -2990,10 +3301,10 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C47" s="9">
         <v>433</v>
@@ -3002,10 +3313,10 @@
         <v>453</v>
       </c>
       <c r="E47" t="s">
-        <v>370</v>
+        <v>255</v>
       </c>
       <c r="F47" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="H47" s="1">
         <f t="shared" si="2"/>
@@ -3030,10 +3341,10 @@
         <v>208</v>
       </c>
       <c r="E48" t="s">
-        <v>371</v>
+        <v>256</v>
       </c>
       <c r="F48" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H48" s="1">
         <f t="shared" si="2"/>
@@ -3058,10 +3369,10 @@
         <v>275</v>
       </c>
       <c r="E49" t="s">
-        <v>315</v>
+        <v>210</v>
       </c>
       <c r="F49" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H49" s="1">
         <f t="shared" si="2"/>
@@ -3086,10 +3397,10 @@
         <v>337</v>
       </c>
       <c r="E50" t="s">
-        <v>372</v>
+        <v>257</v>
       </c>
       <c r="F50" t="s">
-        <v>317</v>
+        <v>211</v>
       </c>
       <c r="H50" s="1">
         <f t="shared" si="2"/>
@@ -3114,10 +3425,10 @@
         <v>580</v>
       </c>
       <c r="E51" t="s">
-        <v>373</v>
+        <v>258</v>
       </c>
       <c r="F51" t="s">
-        <v>319</v>
+        <v>212</v>
       </c>
       <c r="H51" s="1">
         <f t="shared" si="2"/>
@@ -3142,7 +3453,7 @@
         <v>2135</v>
       </c>
       <c r="E52" t="s">
-        <v>374</v>
+        <v>259</v>
       </c>
       <c r="F52" t="s">
         <v>61</v>
@@ -3158,10 +3469,10 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C53" s="10">
         <v>94</v>
@@ -3170,10 +3481,10 @@
         <v>94</v>
       </c>
       <c r="E53" t="s">
-        <v>375</v>
+        <v>260</v>
       </c>
       <c r="F53" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="H53" s="1">
         <f t="shared" si="2"/>
@@ -3186,10 +3497,10 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C54" s="10">
         <v>30.3</v>
@@ -3198,10 +3509,10 @@
         <v>30.3</v>
       </c>
       <c r="E54" t="s">
-        <v>376</v>
+        <v>261</v>
       </c>
       <c r="F54" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="H54" s="1">
         <f t="shared" si="2"/>
@@ -3214,10 +3525,10 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C55" s="7">
         <v>460</v>
@@ -3226,10 +3537,10 @@
         <v>460</v>
       </c>
       <c r="E55" t="s">
-        <v>377</v>
+        <v>262</v>
       </c>
       <c r="F55" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="H55" s="1">
         <f t="shared" si="2"/>
@@ -3242,10 +3553,10 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C56" s="7">
         <v>50</v>
@@ -3254,10 +3565,10 @@
         <v>50</v>
       </c>
       <c r="E56" t="s">
-        <v>378</v>
+        <v>263</v>
       </c>
       <c r="F56" t="s">
-        <v>325</v>
+        <v>213</v>
       </c>
       <c r="H56" s="1">
         <f t="shared" si="2"/>
@@ -3270,10 +3581,10 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C57" s="10">
         <v>400</v>
@@ -3282,10 +3593,10 @@
         <v>400</v>
       </c>
       <c r="E57" t="s">
-        <v>379</v>
+        <v>264</v>
       </c>
       <c r="F57" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="H57" s="1">
         <f t="shared" si="2"/>
@@ -3298,10 +3609,10 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="4" t="s">
-        <v>258</v>
+        <v>195</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>261</v>
+        <v>198</v>
       </c>
       <c r="C58" s="7">
         <v>200</v>
@@ -3310,10 +3621,10 @@
         <v>250</v>
       </c>
       <c r="E58" t="s">
-        <v>380</v>
+        <v>265</v>
       </c>
       <c r="F58" t="s">
-        <v>328</v>
+        <v>214</v>
       </c>
       <c r="J58" s="1">
         <f t="shared" si="3"/>
@@ -3322,10 +3633,10 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="4" t="s">
-        <v>259</v>
+        <v>196</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>262</v>
+        <v>199</v>
       </c>
       <c r="C59" s="7">
         <v>77</v>
@@ -3334,10 +3645,10 @@
         <v>95</v>
       </c>
       <c r="E59" t="s">
-        <v>381</v>
+        <v>266</v>
       </c>
       <c r="F59" t="s">
-        <v>330</v>
+        <v>215</v>
       </c>
       <c r="I59" s="1">
         <v>65</v>
@@ -3347,7 +3658,7 @@
         <v>23.376623376623375</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>260</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -3384,7 +3695,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B2" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3403,60 +3714,60 @@
         <v>57</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="F3" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F4" t="s">
         <v>182</v>
-      </c>
-      <c r="E4" t="s">
-        <v>191</v>
-      </c>
-      <c r="F4" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>6</v>
@@ -3470,77 +3781,77 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" t="s">
         <v>183</v>
       </c>
-      <c r="E6" t="s">
-        <v>193</v>
-      </c>
       <c r="F6" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F7" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E8" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="F8" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E9" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E10" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="F10" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -3561,13 +3872,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C02F804-D757-4CDF-93D0-779A023B8B9E}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" s="13" customFormat="1">
       <c r="A1" s="13" t="s">
@@ -3583,13 +3897,237 @@
         <v>57</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>86</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>274</v>
+      </c>
+      <c r="B9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B10" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>276</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>319</v>
+      </c>
+      <c r="B12" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>278</v>
+      </c>
+      <c r="B13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>320</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>279</v>
+      </c>
+      <c r="B15" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>321</v>
+      </c>
+      <c r="B16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>322</v>
+      </c>
+      <c r="B17" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>323</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>324</v>
+      </c>
+      <c r="B19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>325</v>
+      </c>
+      <c r="B20" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>326</v>
+      </c>
+      <c r="B21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>327</v>
+      </c>
+      <c r="B22" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>283</v>
+      </c>
+      <c r="B23" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>284</v>
+      </c>
+      <c r="B24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>328</v>
+      </c>
+      <c r="B25" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>329</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>373</v>
+      </c>
+      <c r="B27" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>375</v>
+      </c>
+      <c r="B28" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>377</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -3605,4 +4143,667 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9813456-FC6E-408F-A43C-B552919D59B2}">
+  <dimension ref="E1:L25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="7" max="9" bestFit="true" customWidth="true" width="7.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="3.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="48.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:12">
+      <c r="G1" t="s">
+        <v>420</v>
+      </c>
+      <c r="H1" t="s">
+        <v>421</v>
+      </c>
+      <c r="I1" t="s">
+        <v>422</v>
+      </c>
+      <c r="K1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="E2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F2" t="s">
+        <v>379</v>
+      </c>
+      <c r="G2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H2" t="s">
+        <v>380</v>
+      </c>
+      <c r="I2" t="s">
+        <v>381</v>
+      </c>
+      <c r="J2" t="s">
+        <v>293</v>
+      </c>
+      <c r="K2" t="s">
+        <v>382</v>
+      </c>
+      <c r="L2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="E3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G3" t="s">
+        <v>445</v>
+      </c>
+      <c r="H3" t="s">
+        <v>334</v>
+      </c>
+      <c r="I3" t="s">
+        <v>335</v>
+      </c>
+      <c r="J3" t="s">
+        <v>293</v>
+      </c>
+      <c r="K3" t="s">
+        <v>336</v>
+      </c>
+      <c r="L3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="E4" t="s">
+        <v>376</v>
+      </c>
+      <c r="F4" t="s">
+        <v>383</v>
+      </c>
+      <c r="G4" t="s">
+        <v>447</v>
+      </c>
+      <c r="H4" t="s">
+        <v>384</v>
+      </c>
+      <c r="I4" t="s">
+        <v>385</v>
+      </c>
+      <c r="J4" t="s">
+        <v>293</v>
+      </c>
+      <c r="K4" t="s">
+        <v>386</v>
+      </c>
+      <c r="L4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="E5" t="s">
+        <v>316</v>
+      </c>
+      <c r="F5" t="s">
+        <v>337</v>
+      </c>
+      <c r="G5" t="s">
+        <v>449</v>
+      </c>
+      <c r="H5" t="s">
+        <v>338</v>
+      </c>
+      <c r="I5" t="s">
+        <v>339</v>
+      </c>
+      <c r="J5" t="s">
+        <v>293</v>
+      </c>
+      <c r="K5" t="s">
+        <v>340</v>
+      </c>
+      <c r="L5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" t="s">
+        <v>313</v>
+      </c>
+      <c r="F6" t="s">
+        <v>341</v>
+      </c>
+      <c r="G6" t="s">
+        <v>451</v>
+      </c>
+      <c r="H6" t="s">
+        <v>342</v>
+      </c>
+      <c r="I6" t="s">
+        <v>343</v>
+      </c>
+      <c r="J6" t="s">
+        <v>293</v>
+      </c>
+      <c r="K6" t="s">
+        <v>344</v>
+      </c>
+      <c r="L6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="E7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G7" t="s">
+        <v>453</v>
+      </c>
+      <c r="H7" t="s">
+        <v>403</v>
+      </c>
+      <c r="I7" t="s">
+        <v>404</v>
+      </c>
+      <c r="J7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K7" t="s">
+        <v>405</v>
+      </c>
+      <c r="L7" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="E8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" t="s">
+        <v>294</v>
+      </c>
+      <c r="G8" t="s">
+        <v>455</v>
+      </c>
+      <c r="H8" t="s">
+        <v>295</v>
+      </c>
+      <c r="I8" t="s">
+        <v>296</v>
+      </c>
+      <c r="J8" t="s">
+        <v>293</v>
+      </c>
+      <c r="K8" t="s">
+        <v>297</v>
+      </c>
+      <c r="L8" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="E9" t="s">
+        <v>314</v>
+      </c>
+      <c r="F9" t="s">
+        <v>345</v>
+      </c>
+      <c r="G9" t="s">
+        <v>457</v>
+      </c>
+      <c r="H9" t="s">
+        <v>346</v>
+      </c>
+      <c r="I9" t="s">
+        <v>347</v>
+      </c>
+      <c r="J9" t="s">
+        <v>293</v>
+      </c>
+      <c r="K9" t="s">
+        <v>348</v>
+      </c>
+      <c r="L9" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>459</v>
+      </c>
+      <c r="H10" t="s">
+        <v>349</v>
+      </c>
+      <c r="I10" t="s">
+        <v>350</v>
+      </c>
+      <c r="J10" t="s">
+        <v>293</v>
+      </c>
+      <c r="K10" t="s">
+        <v>351</v>
+      </c>
+      <c r="L10" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" t="s">
+        <v>374</v>
+      </c>
+      <c r="F11" t="s">
+        <v>387</v>
+      </c>
+      <c r="G11" t="s">
+        <v>461</v>
+      </c>
+      <c r="H11" t="s">
+        <v>388</v>
+      </c>
+      <c r="I11" t="s">
+        <v>389</v>
+      </c>
+      <c r="J11" t="s">
+        <v>293</v>
+      </c>
+      <c r="K11" t="s">
+        <v>363</v>
+      </c>
+      <c r="L11" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="s">
+        <v>277</v>
+      </c>
+      <c r="F12" t="s">
+        <v>298</v>
+      </c>
+      <c r="G12" t="s">
+        <v>463</v>
+      </c>
+      <c r="H12" t="s">
+        <v>287</v>
+      </c>
+      <c r="I12" t="s">
+        <v>299</v>
+      </c>
+      <c r="J12" t="s">
+        <v>293</v>
+      </c>
+      <c r="K12" t="s">
+        <v>300</v>
+      </c>
+      <c r="L12" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="s">
+        <v>267</v>
+      </c>
+      <c r="F13" t="s">
+        <v>301</v>
+      </c>
+      <c r="G13" t="s">
+        <v>465</v>
+      </c>
+      <c r="H13" t="s">
+        <v>303</v>
+      </c>
+      <c r="I13" t="s">
+        <v>304</v>
+      </c>
+      <c r="J13" t="s">
+        <v>293</v>
+      </c>
+      <c r="K13" t="s">
+        <v>300</v>
+      </c>
+      <c r="L13" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="s">
+        <v>280</v>
+      </c>
+      <c r="F14" t="s">
+        <v>305</v>
+      </c>
+      <c r="G14" t="s">
+        <v>467</v>
+      </c>
+      <c r="H14" t="s">
+        <v>306</v>
+      </c>
+      <c r="I14" t="s">
+        <v>307</v>
+      </c>
+      <c r="J14" t="s">
+        <v>293</v>
+      </c>
+      <c r="K14" t="s">
+        <v>288</v>
+      </c>
+      <c r="L14" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="s">
+        <v>281</v>
+      </c>
+      <c r="F15" t="s">
+        <v>289</v>
+      </c>
+      <c r="G15" t="s">
+        <v>469</v>
+      </c>
+      <c r="H15" t="s">
+        <v>302</v>
+      </c>
+      <c r="I15" t="s">
+        <v>308</v>
+      </c>
+      <c r="J15" t="s">
+        <v>293</v>
+      </c>
+      <c r="K15" t="s">
+        <v>309</v>
+      </c>
+      <c r="L15" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" t="s">
+        <v>330</v>
+      </c>
+      <c r="F16" t="s">
+        <v>352</v>
+      </c>
+      <c r="G16" t="s">
+        <v>471</v>
+      </c>
+      <c r="H16" t="s">
+        <v>353</v>
+      </c>
+      <c r="I16" t="s">
+        <v>354</v>
+      </c>
+      <c r="J16" t="s">
+        <v>293</v>
+      </c>
+      <c r="K16" t="s">
+        <v>355</v>
+      </c>
+      <c r="L16" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="s">
+        <v>269</v>
+      </c>
+      <c r="F17" t="s">
+        <v>290</v>
+      </c>
+      <c r="G17" t="s">
+        <v>473</v>
+      </c>
+      <c r="H17" t="s">
+        <v>291</v>
+      </c>
+      <c r="I17" t="s">
+        <v>292</v>
+      </c>
+      <c r="J17" t="s">
+        <v>293</v>
+      </c>
+      <c r="K17" t="s">
+        <v>285</v>
+      </c>
+      <c r="L17" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="s">
+        <v>311</v>
+      </c>
+      <c r="F18" t="s">
+        <v>356</v>
+      </c>
+      <c r="G18" t="s">
+        <v>475</v>
+      </c>
+      <c r="H18" t="s">
+        <v>357</v>
+      </c>
+      <c r="I18" t="s">
+        <v>358</v>
+      </c>
+      <c r="J18" t="s">
+        <v>293</v>
+      </c>
+      <c r="K18" t="s">
+        <v>359</v>
+      </c>
+      <c r="L18" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="s">
+        <v>312</v>
+      </c>
+      <c r="F19" t="s">
+        <v>360</v>
+      </c>
+      <c r="G19" t="s">
+        <v>477</v>
+      </c>
+      <c r="H19" t="s">
+        <v>361</v>
+      </c>
+      <c r="I19" t="s">
+        <v>362</v>
+      </c>
+      <c r="J19" t="s">
+        <v>293</v>
+      </c>
+      <c r="K19" t="s">
+        <v>363</v>
+      </c>
+      <c r="L19" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" t="s">
+        <v>364</v>
+      </c>
+      <c r="G20" t="s">
+        <v>479</v>
+      </c>
+      <c r="H20" t="s">
+        <v>365</v>
+      </c>
+      <c r="I20" t="s">
+        <v>366</v>
+      </c>
+      <c r="J20" t="s">
+        <v>293</v>
+      </c>
+      <c r="K20" t="s">
+        <v>367</v>
+      </c>
+      <c r="L20" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="s">
+        <v>310</v>
+      </c>
+      <c r="F21" t="s">
+        <v>368</v>
+      </c>
+      <c r="G21" t="s">
+        <v>442</v>
+      </c>
+      <c r="H21" t="s">
+        <v>369</v>
+      </c>
+      <c r="I21" t="s">
+        <v>370</v>
+      </c>
+      <c r="J21" t="s">
+        <v>293</v>
+      </c>
+      <c r="K21" t="s">
+        <v>371</v>
+      </c>
+      <c r="L21" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="s">
+        <v>332</v>
+      </c>
+      <c r="F22" t="s">
+        <v>372</v>
+      </c>
+      <c r="G22" t="s">
+        <v>286</v>
+      </c>
+      <c r="H22" t="s">
+        <v>161</v>
+      </c>
+      <c r="I22" t="s">
+        <v>161</v>
+      </c>
+      <c r="J22" t="s">
+        <v>293</v>
+      </c>
+      <c r="K22" t="s">
+        <v>293</v>
+      </c>
+      <c r="L22" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="23" spans="5:12">
+      <c r="E23" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" t="s">
+        <v>364</v>
+      </c>
+      <c r="G23" t="s">
+        <v>390</v>
+      </c>
+      <c r="H23" t="s">
+        <v>365</v>
+      </c>
+      <c r="I23" t="s">
+        <v>366</v>
+      </c>
+      <c r="J23" t="s">
+        <v>293</v>
+      </c>
+      <c r="K23" t="s">
+        <v>367</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>7.4078435991049325</v>
+      </c>
+    </row>
+    <row r="24" spans="5:12">
+      <c r="E24" t="s">
+        <v>310</v>
+      </c>
+      <c r="F24" t="s">
+        <v>368</v>
+      </c>
+      <c r="G24" t="s">
+        <v>391</v>
+      </c>
+      <c r="H24" t="s">
+        <v>369</v>
+      </c>
+      <c r="I24" t="s">
+        <v>370</v>
+      </c>
+      <c r="J24" t="s">
+        <v>293</v>
+      </c>
+      <c r="K24" t="s">
+        <v>371</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>6.1690920453531062</v>
+      </c>
+    </row>
+    <row r="25" spans="5:12">
+      <c r="E25" t="s">
+        <v>332</v>
+      </c>
+      <c r="F25" t="s">
+        <v>372</v>
+      </c>
+      <c r="G25" t="s">
+        <v>286</v>
+      </c>
+      <c r="H25" t="s">
+        <v>161</v>
+      </c>
+      <c r="I25" t="s">
+        <v>161</v>
+      </c>
+      <c r="J25" t="s">
+        <v>293</v>
+      </c>
+      <c r="K25" t="s">
+        <v>293</v>
+      </c>
+      <c r="L25" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>